--- a/docs/结算信息--模板.xlsx
+++ b/docs/结算信息--模板.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="436">
   <si>
     <t>核算账簿名称</t>
   </si>
@@ -1384,25 +1384,10 @@
   </si>
   <si>
     <t>100202+</t>
+  </si>
+  <si>
+    <t>现金</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202+</t>
-  </si>
-  <si>
-    <t>100202+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金/银行存款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001+</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1520,6 +1505,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1528,7 +1522,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1579,15 +1573,18 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1923,7 +1920,7 @@
   <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F3" sqref="F3:H137"/>
@@ -1937,7 +1934,7 @@
     <col min="4" max="4" width="11.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="32" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.125" style="5" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
@@ -1951,46 +1948,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="6" customFormat="1" ht="40.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2002,7 +1999,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="13" t="s">
@@ -2018,7 +2015,7 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>428</v>
@@ -2061,10 +2058,10 @@
       <c r="P3" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
@@ -2099,8 +2096,8 @@
       <c r="P4" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
@@ -2135,8 +2132,8 @@
       <c r="P5" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
@@ -2169,10 +2166,10 @@
       <c r="N6" s="1"/>
       <c r="O6" s="8"/>
       <c r="P6" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
+        <v>435</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
@@ -2204,9 +2201,11 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="P7" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="3" t="s">
@@ -2238,11 +2237,9 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="3" t="s">
@@ -2274,11 +2271,9 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
@@ -2310,11 +2305,9 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="3" t="s">
@@ -6386,7 +6379,6 @@
       <c r="L138" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="Q3:R6"/>
   </mergeCells>
@@ -6397,18 +6389,21 @@
   <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I301">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D137 I138:I301">
       <formula1>$P$4:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="结算户类别" sqref="L3:L301">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="结算户类别" sqref="L138:L301">
       <formula1>$P$4:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D301">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D138:D301">
       <formula1>$P$4:$P$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 M2">
-      <formula1>$P$9:$P$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I137">
+      <formula1>$P$4:$P$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="结算户类别" sqref="L3:L137">
+      <formula1>$P$4:$P$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
